--- a/Final_scores.xlsx
+++ b/Final_scores.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edidd\Documents\Ubiqum\Data Analytics Course\Module_III_Wifi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B383AF8-20CF-4164-BB65-65B8F16E85C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>average</t>
   </si>
@@ -71,31 +81,42 @@
   </si>
   <si>
     <t>Xenia/Xenia submission 1 - building LR floor power transformation knn lat y lon binning knn.csv</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Building</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -105,42 +126,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -330,23 +356,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.71"/>
+    <col min="1" max="1" width="35.71875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -373,7 +402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -402,7 +431,7 @@
         <v>99.98</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -431,7 +460,7 @@
         <v>99.98</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -460,7 +489,7 @@
         <v>99.98</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -489,7 +518,7 @@
         <v>99.98</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -506,7 +535,7 @@
         <v>9.83</v>
       </c>
       <c r="F6" s="4">
-        <v>18.19</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="G6" s="4">
         <v>111.66</v>
@@ -515,7 +544,7 @@
         <v>94.15</v>
       </c>
       <c r="I6" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -535,7 +564,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -549,7 +578,7 @@
         <v>5.66</v>
       </c>
       <c r="E7" s="4">
-        <v>9.13</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="F7" s="4">
         <v>17.27</v>
@@ -561,7 +590,7 @@
         <v>96.08</v>
       </c>
       <c r="I7" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -581,7 +610,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -607,7 +636,7 @@
         <v>96.1</v>
       </c>
       <c r="I8" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -627,7 +656,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -653,7 +682,7 @@
         <v>94.81</v>
       </c>
       <c r="I9" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -673,12 +702,12 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4">
         <v>2.81</v>
@@ -687,7 +716,7 @@
         <v>5.42</v>
       </c>
       <c r="E10" s="4">
-        <v>9.78</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="F10" s="4">
         <v>18.12</v>
@@ -699,7 +728,7 @@
         <v>94.15</v>
       </c>
       <c r="I10" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -719,7 +748,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -736,7 +765,7 @@
         <v>10.7</v>
       </c>
       <c r="F11" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2">
         <v>140.21</v>
@@ -748,7 +777,7 @@
         <v>99.94</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -762,10 +791,10 @@
         <v>5.67</v>
       </c>
       <c r="E12" s="2">
-        <v>9.71</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="F12" s="2">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G12" s="2">
         <v>218.81</v>
@@ -777,7 +806,7 @@
         <v>99.98</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -794,7 +823,7 @@
         <v>9.93</v>
       </c>
       <c r="F13" s="2">
-        <v>18.01</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="G13" s="2">
         <v>56.88</v>
@@ -807,6 +836,193 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027BDFCF-45C5-4F95-BBD5-5BFAF59E4C2C}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="35.71875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7.07</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.83</v>
+      </c>
+      <c r="D2" s="4">
+        <v>111.66</v>
+      </c>
+      <c r="E2" s="4">
+        <v>94.15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6.78</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="D3" s="4">
+        <v>53.45</v>
+      </c>
+      <c r="E3" s="4">
+        <v>96.08</v>
+      </c>
+      <c r="F3" s="4">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.06</v>
+      </c>
+      <c r="D4" s="4">
+        <v>35.54</v>
+      </c>
+      <c r="E4" s="4">
+        <v>96.1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6.89</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9.61</v>
+      </c>
+      <c r="D5" s="4">
+        <v>62.15</v>
+      </c>
+      <c r="E5" s="4">
+        <v>94.81</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>